--- a/2021 Revenue Plan - 13.5M_v0.2.xlsx
+++ b/2021 Revenue Plan - 13.5M_v0.2.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="86">
   <si>
     <t>Backlog</t>
   </si>
@@ -892,8 +892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="Q57" sqref="Q57"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -910,46 +910,20 @@
     <row r="2" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="7">
-        <v>44197</v>
-      </c>
-      <c r="E2" s="7">
-        <v>44228</v>
-      </c>
-      <c r="F2" s="7">
-        <v>44256</v>
-      </c>
-      <c r="G2" s="7">
-        <v>44287</v>
-      </c>
-      <c r="H2" s="7">
-        <v>44317</v>
-      </c>
-      <c r="I2" s="7">
-        <v>44348</v>
-      </c>
-      <c r="J2" s="7">
-        <v>44378</v>
-      </c>
-      <c r="K2" s="7">
-        <v>44409</v>
-      </c>
-      <c r="L2" s="7">
-        <v>44440</v>
-      </c>
-      <c r="M2" s="7">
-        <v>44470</v>
-      </c>
-      <c r="N2" s="7">
-        <v>44501</v>
-      </c>
-      <c r="O2" s="7">
-        <v>44531</v>
-      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="6" t="s">
-        <v>2</v>
-      </c>
+      <c r="Q2" s="6"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B3" s="28" t="s">
